--- a/static/fields/drugndc_reference.xlsx
+++ b/static/fields/drugndc_reference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackfinch/WebstormProjects/open.fda.gov/static/fields/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444BEAD5-A5A9-1542-A261-2D33AEE2FBC5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0585081-F918-204A-B108-801627721CA9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2260" yWindow="760" windowWidth="26540" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1595,8 +1595,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="21" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="44" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>

--- a/static/fields/drugndc_reference.xlsx
+++ b/static/fields/drugndc_reference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackfinch/WebstormProjects/open.fda.gov/static/fields/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0585081-F918-204A-B108-801627721CA9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B763F1C-F5C8-434B-B97B-2B15D7E6AC1E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2260" yWindow="760" windowWidth="26540" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1123,9 +1123,9 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="118.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.83203125" style="5" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -1220,7 +1220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1597,7 +1597,7 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="44" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="57" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
